--- a/data_impute_project/removed_data/terrestrial_mammals/combination_2_ABCDE/ABC/20/seed4/missing_data.xlsx
+++ b/data_impute_project/removed_data/terrestrial_mammals/combination_2_ABCDE/ABC/20/seed4/missing_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1620 +436,2130 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hb 47</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>-20.51</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>10.48</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-10.94</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-7.6</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>17.25</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hb 48</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>-21.82</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>4.03</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-12.16</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-8.949999999999999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>17.78</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Hb 21</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>-19.84</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-13.95</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-8.23</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>17.51</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hb 22</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>-19.9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>8.630000000000001</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-11.8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-8.16</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>16.63</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hb 17</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>-21.08</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>5.51</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
         <v>-8.08</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>16.12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>S 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>-22.82</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
         <v>-11.52</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-9.359999999999999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>17.28</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hb 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>-21.27</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>2.91</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-14.64</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-8.029999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>16.54</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hb 46</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
         <v>4.86</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>-11.36</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-7.01</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>17.64</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hb 1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>-22.54</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>6.17</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>-12.45</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-8.85</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>15.84</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hb 2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>-21.2</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>3.8</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>-10.8</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>-8.220000000000001</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>17.04</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hb 3</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>-21.67</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
         <v>-9.76</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-6.85</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>17.26</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Hb 5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
         <v>4.02</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>-15.83</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-8.359999999999999</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>16.47</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>S 24</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>-22.38</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
         <v>-11.3</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-7.43</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>17.29</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>S 25</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>-22.78</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>5.32</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
         <v>-10.04</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>16.67</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>S 26</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
         <v>3.96</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>-13.59</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>-9.27</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>14.68</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>S 27</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>-22.45</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>3.89</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>-14.84</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>-7.82</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>15.63</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>S 28</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
         <v>4.35</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>-15.14</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-6.27</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>17.03</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hb 103</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>-18.24</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
         <v>-12.15</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>-7.9</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>16.87</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hb 104</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
         <v>10.19</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>-14.88</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>-10.64</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>16.97</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hb 105</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>-19.55</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>9.52</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>-13.13</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>-6.74</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>16.94</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hb 106</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>-20.06</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>8.81</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>-15.07</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>-6.8</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>16.18</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hb 107</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>-20.35</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>7.87</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>-12.89</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-8.59</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>17.37</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Hb 63</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>-20.85</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>7.41</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>-10.44</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>-7.7</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>16.37</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hb 65</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>-21.51</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>5.23</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>-11.07</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>-7.4</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>16.01</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hb 66</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="n">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
         <v>-10.59</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>-9.31</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>13.83</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Hb 67</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
         <v>-11.92</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>-8.550000000000001</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>15.34</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hb 68</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>-21.74</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>5.47</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
         <v>-7.75</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>16.42</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hb 69</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="n">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="n">
         <v>-11.02</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>-7.09</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>17.76</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hb 70</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>-21.31</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>5.27</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>-10.71</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>-10.18</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>16.57</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Hb 71</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>-21.76</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>4.47</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>-11.3</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>-9.77</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>15.44</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hb 72</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>-20.86</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>3.16</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>-10.55</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>-8.69</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>15.18</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Hb 93</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>-22.02</v>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>6.69</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="n">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
         <v>-6.63</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>17.52</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hb 94</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
         <v>-20.6</v>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>6.92</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>-11.49</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>-7.27</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>16.39</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="n">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hb 95</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
         <v>10.18</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
         <v>-9.9</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>15.78</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="n">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hb 96</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
         <v>9.84</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>-10.09</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>-9.050000000000001</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>15.99</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hb 97</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
         <v>-19.97</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>-12.29</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>-7.88</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>16.03</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Hb 98</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
         <v>-21.37</v>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
         <v>-9.09</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>15.23</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hb 99</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
         <v>-18.76</v>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>9.35</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>-10.58</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>-8.93</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>16.91</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hb 100</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
         <v>-19.21</v>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>10.75</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>-12.94</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>-7.23</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>16.16</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Hb 101</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
         <v>-19.28</v>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" t="n">
         <v>8.92</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>-14.21</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>-8.720000000000001</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>16.34</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hb 102</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
         <v>-18.32</v>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>9.16</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>-13.45</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>-7.75</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>16.31</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>S 29</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
         <v>-22.33</v>
       </c>
-      <c r="B43" t="n">
+      <c r="C43" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
         <v>-6.95</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>16.64</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>S 30</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
         <v>-21.91</v>
       </c>
-      <c r="B44" t="n">
+      <c r="C44" t="n">
         <v>10.98</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
         <v>-8.220000000000001</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>16.52</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="n">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Hb 83</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="n">
         <v>5.73</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="n">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
         <v>-7.87</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>16.85</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Hb 84</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
         <v>-22.54</v>
       </c>
-      <c r="B46" t="n">
+      <c r="C46" t="n">
         <v>4.17</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>-11.47</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>-8.09</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>16.03</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Hb 85</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
         <v>-21.83</v>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="n">
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
         <v>-8.5</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>17.05</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hb 86</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
         <v>-21.86</v>
       </c>
-      <c r="B48" t="n">
+      <c r="C48" t="n">
         <v>5.63</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>-10.86</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>-6.88</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>17.41</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hb 87</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
         <v>-22.14</v>
       </c>
-      <c r="B49" t="n">
+      <c r="C49" t="n">
         <v>4.95</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>-12.11</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>-9.210000000000001</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>16.49</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Hb 88</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
         <v>-22.25</v>
       </c>
-      <c r="B50" t="n">
+      <c r="C50" t="n">
         <v>4.91</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>-14.51</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>-8.029999999999999</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>16.71</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Hb 89</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
         <v>-22</v>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
         <v>-7.18</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>17.2</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hb 90</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
         <v>-21.69</v>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="n">
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
         <v>-14.35</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>-6.93</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>17.44</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hb 91</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
         <v>-21.36</v>
       </c>
-      <c r="B53" t="n">
+      <c r="C53" t="n">
         <v>5.82</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>-12.98</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>-7.23</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>18.53</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hb 92</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
         <v>-22.23</v>
       </c>
-      <c r="B54" t="n">
+      <c r="C54" t="n">
         <v>6.01</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="n">
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
         <v>-8.01</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>15.77</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hb 40</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="n">
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
         <v>-15.79</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>-10.06</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>16.57</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hb 41</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
         <v>-21.95</v>
       </c>
-      <c r="B56" t="n">
+      <c r="C56" t="n">
         <v>4.42</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>-13.63</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>-8.92</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>16.79</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="n">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Hb 42</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="n">
         <v>4.82</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="n">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
         <v>-8.31</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>16.41</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hb 43</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
         <v>-22.41</v>
       </c>
-      <c r="B58" t="n">
+      <c r="C58" t="n">
         <v>3.7</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>-15.6</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>-7.51</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>16.91</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>S 8</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
         <v>-21.94</v>
       </c>
-      <c r="B59" t="n">
+      <c r="C59" t="n">
         <v>4.58</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>-14.55</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>-9.48</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>16.47</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>S 9</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
         <v>-21.73</v>
       </c>
-      <c r="B60" t="n">
+      <c r="C60" t="n">
         <v>3.07</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>-13.33</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>-9.630000000000001</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>16.4</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>S 11</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
         <v>-20.07</v>
       </c>
-      <c r="B61" t="n">
+      <c r="C61" t="n">
         <v>8.33</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>-11.89</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>-7.97</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>16.69</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>S 12</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
         <v>-22.78</v>
       </c>
-      <c r="B62" t="n">
+      <c r="C62" t="n">
         <v>4.28</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="n">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
         <v>-8.5</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>16.65</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hb 53</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
         <v>-21.46</v>
       </c>
-      <c r="B63" t="n">
+      <c r="C63" t="n">
         <v>4.39</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="n">
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
         <v>-7.14</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>16.71</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hb 54</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
         <v>-21.62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="C64" t="n">
         <v>4.89</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>-10.62</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>-6.84</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>16.88</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hb 55</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
         <v>-22.48</v>
       </c>
-      <c r="B65" t="n">
+      <c r="C65" t="n">
         <v>6.69</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>-11.86</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>-7.07</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>17.18</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Hb 56</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
         <v>-21.61</v>
       </c>
-      <c r="B66" t="n">
+      <c r="C66" t="n">
         <v>5.18</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>-10.51</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>-7.15</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>17.07</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Hb 57</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
         <v>-21.67</v>
       </c>
-      <c r="B67" t="n">
+      <c r="C67" t="n">
         <v>5.53</v>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="n">
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
         <v>-6.43</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>18.14</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hb 58</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
         <v>-21.44</v>
       </c>
-      <c r="B68" t="n">
+      <c r="C68" t="n">
         <v>4.88</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>-9.98</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>-7.27</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>17.66</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Hb 59</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="n">
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="n">
         <v>-10.8</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>-6.88</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>17.51</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Hb 60</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
         <v>-21.91</v>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="n">
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
         <v>-7.03</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>17.62</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Hb 61</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
         <v>-21.28</v>
       </c>
-      <c r="B71" t="n">
+      <c r="C71" t="n">
         <v>4.58</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>-9.93</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>-7.44</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>17.13</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Hb 62</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
         <v>-21.62</v>
       </c>
-      <c r="B72" t="n">
+      <c r="C72" t="n">
         <v>6.81</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>-11.2</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>-7.37</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>17.18</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hb 12</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
         <v>-20.59</v>
       </c>
-      <c r="B73" t="n">
+      <c r="C73" t="n">
         <v>10.24</v>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>-15.02</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>-6.42</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>16.21</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Hb 13</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
         <v>-19.27</v>
       </c>
-      <c r="B74" t="n">
+      <c r="C74" t="n">
         <v>7.45</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>-12.97</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>-8.550000000000001</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>16.1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Hb 14</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
         <v>-21.87</v>
       </c>
-      <c r="B75" t="n">
+      <c r="C75" t="n">
         <v>8.09</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>-14.77</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>-7.62</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>16.51</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hb 15</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="n">
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="n">
         <v>-15.06</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>-7.88</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>16.38</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>S 18</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
         <v>-19.89</v>
       </c>
-      <c r="B77" t="n">
+      <c r="C77" t="n">
         <v>10.09</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>-9.57</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>-6.2</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>17.96</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="n">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>S 19</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="n">
         <v>9.640000000000001</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>-13.33</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>-6.53</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>17.28</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>S 21</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
         <v>-20.57</v>
       </c>
-      <c r="B79" t="n">
+      <c r="C79" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>-9.779999999999999</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>-4.8</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>18.4</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>S 22</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
         <v>-20.43</v>
       </c>
-      <c r="B80" t="n">
+      <c r="C80" t="n">
         <v>11.21</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>-12.35</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>-6.63</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>16.41</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Hb 35</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
         <v>-22.03</v>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="n">
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="n">
         <v>-8.390000000000001</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>17.6</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="n">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Hb 36</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="n">
         <v>5.26</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>-14.08</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>-7.37</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>16.71</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Hb 38</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="n">
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="n">
         <v>-13.03</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>-7.67</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>16.38</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hb 39</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
         <v>-22.05</v>
       </c>
-      <c r="B84" t="n">
+      <c r="C84" t="n">
         <v>4.99</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>-12.28</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>-8.34</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>16.54</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>S 1</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
         <v>-21.53</v>
       </c>
-      <c r="B85" t="n">
+      <c r="C85" t="n">
         <v>4.31</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>-13.1</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>-7.87</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>17.41</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>S 2</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
         <v>-22.27</v>
       </c>
-      <c r="B86" t="n">
+      <c r="C86" t="n">
         <v>4.69</v>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>-14.09</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>-8.17</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>17.03</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>S 3</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
         <v>-23.05</v>
       </c>
-      <c r="B87" t="n">
+      <c r="C87" t="n">
         <v>5.81</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>-15.19</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>-8.869999999999999</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>16.53</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>S 5</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
         <v>-22.69</v>
       </c>
-      <c r="B88" t="n">
+      <c r="C88" t="n">
         <v>5.51</v>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="n">
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="n">
         <v>-8.140000000000001</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>17.32</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Hb 73</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
         <v>-21.45</v>
       </c>
-      <c r="B89" t="n">
+      <c r="C89" t="n">
         <v>4.69</v>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>-10.11</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>-7</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>19.73</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Hb 74</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
         <v>-21.82</v>
       </c>
-      <c r="B90" t="n">
+      <c r="C90" t="n">
         <v>7.49</v>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>-12.06</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>-8.890000000000001</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>16.68</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Hb 76</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
         <v>-21.49</v>
       </c>
-      <c r="B91" t="n">
+      <c r="C91" t="n">
         <v>4.28</v>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>-10.09</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>-5.79</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>19.72</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Hb 77</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
         <v>-21.6</v>
       </c>
-      <c r="B92" t="n">
+      <c r="C92" t="n">
         <v>6.16</v>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>-9.49</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>-5.32</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>19.64</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="n">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Hb 78</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="n">
         <v>7.55</v>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>-11.3</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>-6.1</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>18.32</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Hb 79</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
         <v>-20.95</v>
       </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="n">
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="n">
         <v>-10.65</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>-5.14</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>17.92</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Hb 31</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
         <v>-21.33</v>
       </c>
-      <c r="B95" t="n">
+      <c r="C95" t="n">
         <v>6.4</v>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>-10.47</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>-6.44</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>16.44</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Hb 32</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
         <v>-20.86</v>
       </c>
-      <c r="B96" t="n">
+      <c r="C96" t="n">
         <v>5.8</v>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="n">
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="n">
         <v>-8.529999999999999</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>16.3</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="n">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Hb 33</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="n">
         <v>5.08</v>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>-13.93</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>-7.59</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>15.78</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>S 13</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
         <v>-21.08</v>
       </c>
-      <c r="B98" t="n">
+      <c r="C98" t="n">
         <v>4.73</v>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>-13.95</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>-9.33</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>15.27</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>S 14</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
         <v>-21.4</v>
       </c>
-      <c r="B99" t="n">
+      <c r="C99" t="n">
         <v>8.42</v>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="n">
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="n">
         <v>-7.98</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>16.01</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>S 16</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
         <v>-21.66</v>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="n">
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="n">
         <v>-14.32</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>-7.71</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>15.6</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Hb 10</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
         <v>-19.85</v>
       </c>
-      <c r="B101" t="n">
+      <c r="C101" t="n">
         <v>7.61</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>-11.07</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>-7.34</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>16.32</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Hb 11</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
         <v>-20.36</v>
       </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="n">
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="n">
         <v>-12</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>-8.630000000000001</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>16.08</v>
       </c>
     </row>
